--- a/dataset/Sensor4.xlsx
+++ b/dataset/Sensor4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\code\_python\ComNets-Research-Lab-Sensor-Data\dataset\Second Experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\code\_python\sensor_fault_dataset\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87184AC-127F-4239-8ACB-926408E049BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947A23D7-216E-4825-8D57-9D9B992537F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,10 +176,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -300,7 +297,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$793:$A$1367</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="575"/>
                 <c:pt idx="0">
                   <c:v>44786.020833333343</c:v>
@@ -3813,7 +3810,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$793:$A$1367</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="575"/>
                 <c:pt idx="0">
                   <c:v>44786.020833333343</c:v>
@@ -7314,7 +7311,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$793:$A$1367</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="575"/>
                 <c:pt idx="0">
                   <c:v>44786.020833333343</c:v>
@@ -9093,7 +9090,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$793:$A$1367</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="575"/>
                 <c:pt idx="0">
                   <c:v>44786.020833333343</c:v>
@@ -10872,7 +10869,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$793:$A$1367</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="575"/>
                 <c:pt idx="0">
                   <c:v>44786.020833333343</c:v>
@@ -12654,7 +12651,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$793:$A$1367</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="575"/>
                 <c:pt idx="0">
                   <c:v>44786.020833333343</c:v>
@@ -15562,12 +15559,12 @@
   <dimension ref="A1:F2922"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1356" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A1385" sqref="A1385:XFD1422"/>
+      <selection activeCell="T1407" sqref="T1407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>

--- a/dataset/Sensor4.xlsx
+++ b/dataset/Sensor4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\code\_python\sensor_fault_dataset\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947A23D7-216E-4825-8D57-9D9B992537F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09365EB-B3B6-447E-986D-B384B5FDA3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,6 +64,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,10 +179,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -297,7 +300,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$793:$A$1367</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
                 <c:ptCount val="575"/>
                 <c:pt idx="0">
                   <c:v>44786.020833333343</c:v>
@@ -3810,7 +3813,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$793:$A$1367</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
                 <c:ptCount val="575"/>
                 <c:pt idx="0">
                   <c:v>44786.020833333343</c:v>
@@ -7311,7 +7314,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$793:$A$1367</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
                 <c:ptCount val="575"/>
                 <c:pt idx="0">
                   <c:v>44786.020833333343</c:v>
@@ -9090,7 +9093,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$793:$A$1367</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
                 <c:ptCount val="575"/>
                 <c:pt idx="0">
                   <c:v>44786.020833333343</c:v>
@@ -10869,7 +10872,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$793:$A$1367</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
                 <c:ptCount val="575"/>
                 <c:pt idx="0">
                   <c:v>44786.020833333343</c:v>
@@ -12651,7 +12654,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$793:$A$1367</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
                 <c:ptCount val="575"/>
                 <c:pt idx="0">
                   <c:v>44786.020833333343</c:v>
@@ -15559,7 +15562,7 @@
   <dimension ref="A1:F2922"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1356" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T1407" sqref="T1407"/>
+      <selection activeCell="A1356" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
